--- a/Documents/Database.xlsx
+++ b/Documents/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mobile-Programming\GoodTeam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoodTeam\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4854BB1A-2166-4D04-ADB2-4AA96EE0EA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAA018-5966-4653-91CB-FF7FCAD75CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1065" windowWidth="14340" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38070" yWindow="2415" windowWidth="14625" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,19 +671,7 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -735,6 +723,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1019,47 +1019,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>21</v>
       </c>
@@ -1068,21 +1068,21 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>16</v>
       </c>
@@ -1091,47 +1091,47 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="6"/>
       <c r="J7" t="s">
         <v>2</v>
       </c>
@@ -1145,15 +1145,15 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
       <c r="J9" t="s">
         <v>3</v>
       </c>
@@ -1162,23 +1162,23 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -1187,56 +1187,56 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="J12" s="17" t="s">
+      <c r="H12" s="4"/>
+      <c r="J12" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="6"/>
       <c r="N13" t="s">
         <v>45</v>
       </c>
@@ -1247,15 +1247,15 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="N15" t="s">
         <v>47</v>
       </c>
@@ -1268,29 +1268,29 @@
       <c r="Q15" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="34"/>
     </row>
     <row r="16" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="26"/>
       <c r="N16" t="s">
         <v>48</v>
       </c>
@@ -1320,21 +1320,21 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="4"/>
       <c r="R17">
         <v>900</v>
       </c>
@@ -1344,26 +1344,26 @@
       <c r="T17" t="s">
         <v>53</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="4"/>
       <c r="N18" t="s">
         <v>55</v>
       </c>
@@ -1378,21 +1378,21 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="6"/>
       <c r="N19" t="s">
         <v>59</v>
       </c>
@@ -1408,47 +1408,47 @@
     </row>
     <row r="20" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
       <c r="N22">
         <v>1830</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="8">
         <v>2200</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="8">
         <v>600</v>
       </c>
       <c r="Q22">
@@ -1459,130 +1459,130 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="O23" s="14">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="O23" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="N25" s="13">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="N25" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="9">
         <v>0.91666666666666663</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="9">
         <v>0.25</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="9">
         <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="N26" s="15">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="N26" s="11">
         <v>3.5</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="11">
         <v>4.5</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="11">
         <v>3.5</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="11">
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1597,62 +1597,62 @@
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
       <c r="N28">
         <f>SUMPRODUCT(N26:Q26,N27:Q27)</f>
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
       <c r="N30">
         <v>1600</v>
       </c>
@@ -1667,782 +1667,782 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
       <c r="T31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="21"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="5"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="33"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="31" t="s">
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
+      <c r="E63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="21"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="17"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="5"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
+      <c r="E68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="8"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
+      <c r="E69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7" t="s">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="8"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7" t="s">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="8"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="21"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="17"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
-      <c r="C77" s="33" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
+      <c r="E77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21"/>
-      <c r="C78" s="23" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
+      <c r="E78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="10"/>
+      <c r="H78" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="B66:J66"/>
     <mergeCell ref="B74:H74"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
